--- a/docs/Backlog-2021.xlsx
+++ b/docs/Backlog-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog-2021" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/docs/Backlog-2021.xlsx
+++ b/docs/Backlog-2021.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Backlog-2021" sheetId="1" r:id="rId1"/>
     <sheet name="Feature Estimation" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Quartz Scheduler</t>
   </si>
@@ -33,15 +32,9 @@
     <t>MasterInfra</t>
   </si>
   <si>
-    <t xml:space="preserve">Create WebApi </t>
-  </si>
-  <si>
     <t>Secure WebApi with Identity</t>
   </si>
   <si>
-    <t>Angular App Creation</t>
-  </si>
-  <si>
     <t>Angular App - Authentication &amp; Authorization</t>
   </si>
   <si>
@@ -51,9 +44,6 @@
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>PENDING</t>
-  </si>
-  <si>
     <t>STAUS</t>
   </si>
   <si>
@@ -63,32 +53,74 @@
     <t>PROJECT</t>
   </si>
   <si>
-    <t>START DATE</t>
-  </si>
-  <si>
-    <t>END DATE</t>
-  </si>
-  <si>
-    <t>SecureApi</t>
-  </si>
-  <si>
     <t>Feature Type</t>
   </si>
   <si>
     <t>Duration (In Hours)</t>
   </si>
   <si>
-    <t>ESTIMATION</t>
-  </si>
-  <si>
     <t>LONG</t>
+  </si>
+  <si>
+    <t>MasterWeb</t>
+  </si>
+  <si>
+    <t>Create WebApi project</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>IIS to Kestral Hosting</t>
+  </si>
+  <si>
+    <t>Default Logging to serilog</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Project </t>
+  </si>
+  <si>
+    <t>Create Angular app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETION PLANNED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCTUAL PLANNED </t>
+  </si>
+  <si>
+    <t>JULY, 2021</t>
+  </si>
+  <si>
+    <t>Elasticsearch</t>
+  </si>
+  <si>
+    <t>JULY, 2022</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Unit Testing Jasmine, Karma</t>
+  </si>
+  <si>
+    <t>Unit Test xUnit</t>
+  </si>
+  <si>
+    <t>Sonarqube integraion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +136,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,13 +158,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,12 +214,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,153 +517,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:5" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -629,15 +758,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -645,7 +774,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -653,7 +782,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -662,16 +791,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>